--- a/Excel reports consolidation/Sales Results/SalesResults-2024-10-08.xlsx
+++ b/Excel reports consolidation/Sales Results/SalesResults-2024-10-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02- Personal\Development\UiPath-in-Action\Excel reports consolidation\Sales Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A6D17-6152-4328-A45C-4408420C042A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7816F320-85DB-44A4-AAF1-7E24445077BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D122375-EC93-4C94-A19A-709509360B66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A3D67DF-E6B4-4987-AB69-5D45F68A790B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>FlatWhite</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -220,9 +223,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Americano</c:v>
                 </c:pt>
@@ -239,18 +242,21 @@
                   <c:v>Flat White</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>FlatWhite</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Hot Tea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Iced Tea</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Latte</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Macchiato</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Mocha</c:v>
                 </c:pt>
               </c:strCache>
@@ -258,46 +264,49 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$12</c:f>
+              <c:f>Sheet2!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>544</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>480</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>558</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>666</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>444</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.5</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>819</c:v>
+                  <c:v>381.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>738.5</c:v>
+                  <c:v>922.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>850.5</c:v>
+                  <c:v>745.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>877.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-86CD-42A9-8628-947D93AB0C18}"/>
+              <c16:uniqueId val="{00000000-D002-48E0-AD1E-21D20A4BD7E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -357,22 +366,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>96520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA83A67-079E-4438-AA33-0D31F833B914}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7BF325-7800-05F8-28A0-424B61F8890C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -394,13 +403,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mohamed Zayan" refreshedDate="45573.548082638888" createdVersion="1" refreshedVersion="8" recordCount="40" xr:uid="{18784BCC-57D0-46B0-9362-3D2B6956FDD4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mohamed Zayan" refreshedDate="45573.564755439817" createdVersion="1" refreshedVersion="8" recordCount="40" xr:uid="{2DE844E5-C138-45CF-8674-BBB68D40AB0D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D41" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Item" numFmtId="0">
-      <sharedItems count="10">
+      <sharedItems count="11">
         <s v="Espresso"/>
         <s v="Americano"/>
         <s v="Macchiato"/>
@@ -411,6 +420,7 @@
         <s v="Cold Brew"/>
         <s v="Hot Tea"/>
         <s v="Iced Tea"/>
+        <s v="FlatWhite"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Unit Price ($)" numFmtId="0">
@@ -496,6 +506,66 @@
   <r>
     <x v="0"/>
     <n v="3"/>
+    <n v="38"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="27"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.5"/>
+    <n v="24"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="35"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4.5"/>
+    <n v="45"/>
+    <n v="202.5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="4.5"/>
+    <n v="50"/>
+    <n v="225"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4.5"/>
+    <n v="16"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3.5"/>
+    <n v="22"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
     <n v="52"/>
     <n v="156"/>
   </r>
@@ -613,80 +683,21 @@
     <n v="10"/>
     <n v="35"/>
   </r>
-  <r>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="74"/>
-    <n v="222"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="23"/>
-    <n v="69"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="3.5"/>
-    <n v="22"/>
-    <n v="77"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="13"/>
-    <n v="52"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="4.5"/>
-    <n v="22"/>
-    <n v="99"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="4.5"/>
-    <n v="64"/>
-    <n v="288"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="4.5"/>
-    <n v="10"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="4"/>
-    <n v="22"/>
-    <n v="88"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="3"/>
-    <n v="31"/>
-    <n v="93"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="3.5"/>
-    <n v="20"/>
-    <n v="70"/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7D3389E-EA3D-4313-9D41-F324DF74BCE4}" name="SalesByStore" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
-  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C73DF1FA-732F-4E69-9244-53ECEAD56C8E}" name="SalesByStore" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
+  <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="11">
+      <items count="12">
         <item x="1"/>
         <item x="3"/>
         <item x="7"/>
         <item x="0"/>
         <item x="5"/>
+        <item x="10"/>
         <item x="8"/>
         <item x="9"/>
         <item x="4"/>
@@ -725,7 +736,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -755,6 +766,9 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -1105,8 +1119,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871984E1-41FB-46A7-9BD9-58CB97648354}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D0F1F6-BDE5-496B-9CEB-3812A929069F}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1118,10 +1132,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1129,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1137,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>544</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1145,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>480</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1153,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>558</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1161,55 +1175,63 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>666</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>444</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>374.5</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>819</v>
+        <v>381.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>738.5</v>
+        <v>922.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>850.5</v>
+        <v>745.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>5654.5</v>
+        <v>877.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>5637</v>
       </c>
     </row>
   </sheetData>
@@ -1219,11 +1241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63B58A2-5350-4D5C-AB88-B00E6ED1727D}">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B97BF-874A-40A7-A537-3A4171576B5F}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,10 +1418,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,10 +1432,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,24 +1474,24 @@
         <v>4.5</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>4.5</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1480,10 +1502,10 @@
         <v>4.5</v>
       </c>
       <c r="C18">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>553.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1494,10 +1516,10 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1508,10 +1530,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1522,10 +1544,10 @@
         <v>3.5</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,10 +1558,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,10 +1586,10 @@
         <v>3.5</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>154</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1592,10 +1614,10 @@
         <v>4.5</v>
       </c>
       <c r="C26">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>603</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1606,10 +1628,10 @@
         <v>4.5</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>225</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1620,10 +1642,10 @@
         <v>4.5</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="D28">
-        <v>189</v>
+        <v>553.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,10 +1656,10 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,10 +1684,10 @@
         <v>3.5</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1676,10 +1698,10 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>222</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1690,10 +1712,10 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1704,10 +1726,10 @@
         <v>3.5</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,10 +1740,10 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1732,10 +1754,10 @@
         <v>4.5</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D36">
-        <v>99</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1746,10 +1768,10 @@
         <v>4.5</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>288</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,10 +1782,10 @@
         <v>4.5</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1774,10 +1796,10 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,10 +1810,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>93</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1802,9 +1824,149 @@
         <v>3.5</v>
       </c>
       <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>74</v>
+      </c>
+      <c r="D42">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>3.5</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>4.5</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>4.5</v>
+      </c>
+      <c r="C47">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>4.5</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>3.5</v>
+      </c>
+      <c r="C51">
         <v>20</v>
       </c>
-      <c r="D41">
+      <c r="D51">
         <v>70</v>
       </c>
     </row>
